--- a/sem1/tut1/weeklyexcel1 sol.xlsx
+++ b/sem1/tut1/weeklyexcel1 sol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwetsi_m/Documents/LaTexNotes/BUS2016H/excel docs/excel question bank/suggested solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18E946-E5FE-7E4D-8F25-7D461D28C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57FE48-F3B3-5046-9B56-F67B29D48420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5C63806A-7752-3D45-A91B-31F962C18D2D}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5C63806A-7752-3D45-A91B-31F962C18D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E18D5A-8B6A-7446-8B14-3D80D3D3D733}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1">
-        <v>3.6593356995043742E-2</v>
+        <v>6.9389487671259062E-2</v>
       </c>
       <c r="H1">
         <v>0.05</v>
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="L1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -652,12 +652,12 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f>IF(B6&lt;=$G$2,(1-$G$1/$G$4)^(-$G$4),IF(B6&lt;=$H$2,(1+$H$1/$H$4)^($H$4),EXP($I$1)))</f>
-        <v>1.0374458397728386</v>
+        <f>IF(B6&lt;=($G$2-1),(1-$G$1/$G$4)^(-$G$4),IF(B6&lt;=($H$2-1),(1+$H$1/$H$4)^($H$4),IF(B6=$I$2,1,EXP($I$1))))</f>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E6">
-        <f>D6^($B$36-B6)</f>
-        <v>3.0127493703964925</v>
+        <f>PRODUCT(D6:$D$36)</f>
+        <v>5.8717201341651872</v>
       </c>
       <c r="F6">
         <f>C6*E6</f>
@@ -665,7 +665,7 @@
       </c>
       <c r="G6">
         <f>SUM(F6:F36)</f>
-        <v>80000.000000306492</v>
+        <v>99999.999997132574</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -677,16 +677,16 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D36" si="0">IF(B7&lt;=$G$2,(1-$G$1/$G$4)^(-$G$4),IF(B7&lt;=$H$2,(1+$H$1/$H$4)^($H$4),EXP($I$1)))</f>
-        <v>1.0374458397728386</v>
+        <f t="shared" ref="D7:D36" si="0">IF(B7&lt;=($G$2-1),(1-$G$1/$G$4)^(-$G$4),IF(B7&lt;=($H$2-1),(1+$H$1/$H$4)^($H$4),IF(B7=$I$2,1,EXP($I$1))))</f>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E36" si="1">D7^($B$36-B7)</f>
-        <v>2.904006411608119</v>
+        <f>PRODUCT(D7:$D$36)</f>
+        <v>5.4747643105799995</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F36" si="2">C7*E7</f>
-        <v>2904.0064116081189</v>
+        <f t="shared" ref="F7:F36" si="1">C7*E7</f>
+        <v>5474.7643105799998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -694,20 +694,20 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C36" si="3">IF(B8&lt;=$C$2,$C$1,$D$1)</f>
+        <f t="shared" ref="C8:C36" si="2">IF(B8&lt;=$C$2,$C$1,$D$1)</f>
         <v>1000</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>2.7991884494365382</v>
+        <f>PRODUCT(D8:$D$36)</f>
+        <v>5.1046445626724175</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>2799.1884494365381</v>
+        <f t="shared" si="1"/>
+        <v>5104.6445626724171</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -715,20 +715,20 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>2.6981538140337569</v>
+        <f>PRODUCT(D9:$D$36)</f>
+        <v>4.7595466458464859</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>2698.153814033757</v>
+        <f t="shared" si="1"/>
+        <v>4759.5466458464862</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -736,20 +736,20 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>2.6007659490200958</v>
+        <f>PRODUCT(D10:$D$36)</f>
+        <v>4.4377789669510168</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>2600.7659490200958</v>
+        <f t="shared" si="1"/>
+        <v>4437.7789669510166</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -757,20 +757,20 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>2.506893226917335</v>
+        <f>PRODUCT(D11:$D$36)</f>
+        <v>4.1377642924666178</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>2506.8932269173351</v>
+        <f t="shared" si="1"/>
+        <v>4137.7642924666179</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -778,20 +778,20 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>2.4164087712436633</v>
+        <f>PRODUCT(D12:$D$36)</f>
+        <v>3.8580320172581359</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>2416.4087712436631</v>
+        <f t="shared" si="1"/>
+        <v>3858.032017258136</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -799,20 +799,20 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>2.3291902850299784</v>
+        <f>PRODUCT(D13:$D$36)</f>
+        <v>3.5972109559957421</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>2329.1902850299784</v>
+        <f t="shared" si="1"/>
+        <v>3597.2109559957421</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -820,20 +820,20 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>2.2451198855257668</v>
+        <f>PRODUCT(D14:$D$36)</f>
+        <v>3.3540226219097256</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>2245.1198855257667</v>
+        <f t="shared" si="1"/>
+        <v>3354.0226219097253</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -841,20 +841,20 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0725064680534413</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>2.1640839448711495</v>
+        <f>PRODUCT(D15:$D$36)</f>
+        <v>3.127274959933017</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>2164.0839448711495</v>
+        <f t="shared" si="1"/>
+        <v>3127.2749599330168</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -862,20 +862,20 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>1.0374458397728386</v>
+        <v>1.0506249999999999</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2.0859729365197532</v>
+        <f>PRODUCT(D16:$D$36)</f>
+        <v>2.9158565035126545</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>2085.9729365197531</v>
+        <f t="shared" si="1"/>
+        <v>2915.8565035126544</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D17">
@@ -891,12 +891,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>2.555682416076114</v>
+        <f>PRODUCT(D17:$D$36)</f>
+        <v>2.7753541972755791</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>2555.6824160761139</v>
+        <f t="shared" si="1"/>
+        <v>2775.3541972755793</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D18">
@@ -912,12 +912,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>2.4325353157178964</v>
+        <f>PRODUCT(D18:$D$36)</f>
+        <v>2.641622079500848</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>2432.5353157178965</v>
+        <f t="shared" si="1"/>
+        <v>2641.622079500848</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D19">
@@ -933,12 +933,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>2.3153221327475517</v>
+        <f>PRODUCT(D19:$D$36)</f>
+        <v>2.5143339245695171</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>2315.3221327475517</v>
+        <f t="shared" si="1"/>
+        <v>2514.333924569517</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="D20">
@@ -954,12 +954,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>2.2037569377728037</v>
+        <f>PRODUCT(D20:$D$36)</f>
+        <v>2.3931792262410636</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
-        <v>2203.7569377728037</v>
+        <f t="shared" si="1"/>
+        <v>2393.1792262410636</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -967,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f>IF(B21&lt;=($C$2),$C$1,$D$1)</f>
         <v>1000</v>
       </c>
       <c r="D21">
@@ -975,12 +975,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>2.097567579081788</v>
+        <f>PRODUCT(D21:$D$36)</f>
+        <v>2.2778624402056522</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
-        <v>2097.5675790817882</v>
+        <f t="shared" si="1"/>
+        <v>2277.8624402056521</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D22">
@@ -996,12 +996,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>1.9964950187572048</v>
+        <f>PRODUCT(D22:$D$36)</f>
+        <v>2.1681022631344704</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
-        <v>3992.9900375144098</v>
+        <f t="shared" si="1"/>
+        <v>4336.2045262689408</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D23">
@@ -1017,12 +1017,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>1.9002927007802071</v>
+        <f>PRODUCT(D23:$D$36)</f>
+        <v>2.0636309464694542</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
-        <v>3800.5854015604141</v>
+        <f t="shared" si="1"/>
+        <v>4127.2618929389082</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D24">
@@ -1038,12 +1038,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>1.8087259495825889</v>
+        <f>PRODUCT(D24:$D$36)</f>
+        <v>1.9641936432784812</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>3617.451899165178</v>
+        <f t="shared" si="1"/>
+        <v>3928.3872865569624</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>19</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D25">
@@ -1059,12 +1059,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>1.7215713975800966</v>
+        <f>PRODUCT(D25:$D$36)</f>
+        <v>1.8695477865827308</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
-        <v>3443.1427951601931</v>
+        <f t="shared" si="1"/>
+        <v>3739.0955731654617</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D26">
@@ -1080,12 +1080,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>1.6386164402903955</v>
+        <f>PRODUCT(D26:$D$36)</f>
+        <v>1.7794624976397202</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
-        <v>3277.2328805807911</v>
+        <f t="shared" si="1"/>
+        <v>3558.9249952794403</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1093,7 +1093,7 @@
         <v>21</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D27">
@@ -1101,12 +1101,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>1.559658717706504</v>
+        <f>PRODUCT(D27:$D$36)</f>
+        <v>1.6937180227385797</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>3119.3174354130078</v>
+        <f t="shared" si="1"/>
+        <v>3387.4360454771595</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D28">
@@ -1122,12 +1122,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>1.4845056206605631</v>
+        <f>PRODUCT(D28:$D$36)</f>
+        <v>1.6121051971336873</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
-        <v>2969.0112413211264</v>
+        <f t="shared" si="1"/>
+        <v>3224.2103942673743</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D29">
@@ -1143,12 +1143,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>1.4129738209737661</v>
+        <f>PRODUCT(D29:$D$36)</f>
+        <v>1.5344249348089825</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>2825.9476419475322</v>
+        <f t="shared" si="1"/>
+        <v>3068.8498696179649</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D30">
@@ -1164,12 +1164,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>1.3448888242462975</v>
+        <f>PRODUCT(D30:$D$36)</f>
+        <v>1.4604877428283001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
-        <v>2689.7776484925948</v>
+        <f t="shared" si="1"/>
+        <v>2920.9754856566001</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>25</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D31">
@@ -1185,12 +1185,12 @@
         <v>1.0506249999999999</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>1.2800845441963571</v>
+        <f>PRODUCT(D31:$D$36)</f>
+        <v>1.39011325908702</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>2560.169088392714</v>
+        <f t="shared" si="1"/>
+        <v>2780.2265181740399</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -1198,20 +1198,20 @@
         <v>26</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1.0506249999999999</v>
+        <v>1.0725081812542165</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>1.2184028975099177</v>
+        <f>PRODUCT(D32:$D$36)</f>
+        <v>1.3231298123374371</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
-        <v>2436.8057950198354</v>
+        <f t="shared" si="1"/>
+        <v>2646.259624674874</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -1219,7 +1219,7 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D33">
@@ -1227,11 +1227,11 @@
         <v>1.0725081812542165</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D33:$D$36)</f>
         <v>1.2336780599567434</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2467.356119913487</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>28</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D34">
@@ -1248,11 +1248,11 @@
         <v>1.0725081812542165</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D34:$D$36)</f>
         <v>1.1502737988572274</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2300.5475977144547</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D35">
@@ -1269,11 +1269,11 @@
         <v>1.0725081812542165</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D35:$D$36)</f>
         <v>1.0725081812542165</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2145.0163625084333</v>
       </c>
     </row>
@@ -1282,19 +1282,19 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>1.0725081812542165</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(D36:$D$36)</f>
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27A29FC-3E3B-094C-8AC0-F177A2D054AB}">
   <dimension ref="B3:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -1504,11 +1504,11 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(H9=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" ref="I9:I19" si="1">IF(H9=10,$K$4+$K$5,$K$4)</f>
         <v>2000</v>
       </c>
       <c r="J9">
-        <f>(1+$I$4)^(-H9*$I$6)</f>
+        <f t="shared" ref="J9:J19" si="2">(1+$I$4)^(-H9*$I$6)</f>
         <v>1</v>
       </c>
       <c r="K9">
@@ -1523,14 +1523,14 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <f>O9/4</f>
+        <f t="shared" ref="P9:P29" si="3">O9/4</f>
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <f>(1+$P$4)^(-P9)</f>
+        <f t="shared" ref="R9:R29" si="4">(1+$P$4)^(-P9)</f>
         <v>1</v>
       </c>
       <c r="S9">
@@ -1551,45 +1551,45 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D18" si="1">(1+$C$4)^(-B10)</f>
+        <f t="shared" ref="D10:D18" si="5">(1+$C$4)^(-B10)</f>
         <v>0.970873786407767</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E18" si="2">C10*D10</f>
+        <f t="shared" ref="E10:E18" si="6">C10*D10</f>
         <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <f>IF(H10=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J10">
-        <f>(1+$I$4)^(-H10*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.9532250490173434</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K19" si="3">I10*J10</f>
+        <f t="shared" ref="K10:K19" si="7">I10*J10</f>
         <v>1906.4500980346868</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <f>O10/4</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="Q10">
-        <f>IF(P10&lt;=$R$3,$R$4,IF(P10&lt;=$S$3,$S$4,IF(P10&lt;=$T$3,$T$4,IF(P10&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" ref="Q10:Q29" si="8">IF(P10&lt;=$R$3,$R$4,IF(P10&lt;=$S$3,$S$4,IF(P10&lt;=$T$3,$T$4,IF(P10&lt;=$U$3,$U$4,$V$4))))</f>
         <v>500</v>
       </c>
       <c r="R10">
-        <f>(1+$P$4)^(-P10)</f>
+        <f t="shared" si="4"/>
         <v>0.99506157747984325</v>
       </c>
       <c r="S10">
-        <f t="shared" ref="S10:S29" si="4">Q10*R10</f>
+        <f t="shared" ref="S10:S29" si="9">Q10*R10</f>
         <v>497.5307887399216</v>
       </c>
     </row>
@@ -1598,49 +1598,49 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C18" si="5">IF(INT(B11/3)=B11/3,$E$4,0)</f>
+        <f t="shared" ref="C11:C18" si="10">IF(INT(B11/3)=B11/3,$E$4,0)</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94259590913375435</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <f>IF(H11=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J11">
-        <f>(1+$I$4)^(-H11*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.90863799407411672</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1817.2759881482334</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11">
-        <f>O11/4</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="Q11">
-        <f>IF(P11&lt;=$R$3,$R$4,IF(P11&lt;=$S$3,$S$4,IF(P11&lt;=$T$3,$T$4,IF(P11&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="R11">
-        <f>(1+$P$4)^(-P11)</f>
+        <f t="shared" si="4"/>
         <v>0.99014754297667429</v>
       </c>
       <c r="S11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>495.07377148833717</v>
       </c>
     </row>
@@ -1649,49 +1649,49 @@
         <v>3</v>
       </c>
       <c r="C12">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
         <v>0.91514165935315961</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9151.4165935315959</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <f>IF(H12=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J12">
-        <f>(1+$I$4)^(-H12*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.86613649644032031</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1732.2729928806407</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12">
-        <f>O12/4</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="Q12">
-        <f>IF(P12&lt;=$R$3,$R$4,IF(P12&lt;=$S$3,$S$4,IF(P12&lt;=$T$3,$T$4,IF(P12&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="R12">
-        <f>(1+$P$4)^(-P12)</f>
+        <f t="shared" si="4"/>
         <v>0.98525777605216047</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>492.62888802608023</v>
       </c>
     </row>
@@ -1700,49 +1700,49 @@
         <v>4</v>
       </c>
       <c r="C13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
         <v>0.888487047915689</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
       <c r="I13">
-        <f>IF(H13=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J13">
-        <f>(1+$I$4)^(-H13*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.82562300427503443</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1651.2460085500688</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13">
-        <f>O13/4</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>IF(P13&lt;=$R$3,$R$4,IF(P13&lt;=$S$3,$S$4,IF(P13&lt;=$T$3,$T$4,IF(P13&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="R13">
-        <f>(1+$P$4)^(-P13)</f>
+        <f t="shared" si="4"/>
         <v>0.98039215686274506</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>490.19607843137254</v>
       </c>
     </row>
@@ -1751,49 +1751,49 @@
         <v>5</v>
       </c>
       <c r="C14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
         <v>0.86260878438416411</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <f>IF(H14=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J14">
-        <f>(1+$I$4)^(-H14*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.787004528719916</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1574.0090574398321</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <f>O14/4</f>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="Q14">
-        <f>IF(P14&lt;=$R$3,$R$4,IF(P14&lt;=$S$3,$S$4,IF(P14&lt;=$T$3,$T$4,IF(P14&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="R14">
-        <f>(1+$P$4)^(-P14)</f>
+        <f t="shared" si="4"/>
         <v>0.9755505661567091</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>975.55056615670912</v>
       </c>
     </row>
@@ -1802,49 +1802,49 @@
         <v>6</v>
       </c>
       <c r="C15">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
         <v>0.83748425668365445</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8374.8425668365453</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <f>IF(H15=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J15">
-        <f>(1+$I$4)^(-H15*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.75019243046591322</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1500.3848609318263</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15">
-        <f>O15/4</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="Q15">
-        <f>IF(P15&lt;=$R$3,$R$4,IF(P15&lt;=$S$3,$S$4,IF(P15&lt;=$T$3,$T$4,IF(P15&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="R15">
-        <f>(1+$P$4)^(-P15)</f>
+        <f t="shared" si="4"/>
         <v>0.97073288527124924</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>970.73288527124919</v>
       </c>
     </row>
@@ -1853,49 +1853,49 @@
         <v>7</v>
       </c>
       <c r="C16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
         <v>0.81309151134335378</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16">
-        <f>IF(H16=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J16">
-        <f>(1+$I$4)^(-H16*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.71510221630331006</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1430.20443260662</v>
       </c>
       <c r="O16">
         <v>7</v>
       </c>
       <c r="P16">
-        <f>O16/4</f>
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
       <c r="Q16">
-        <f>IF(P16&lt;=$R$3,$R$4,IF(P16&lt;=$S$3,$S$4,IF(P16&lt;=$T$3,$T$4,IF(P16&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="R16">
-        <f>(1+$P$4)^(-P16)</f>
+        <f t="shared" si="4"/>
         <v>0.96593899612956913</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>965.93899612956909</v>
       </c>
     </row>
@@ -1904,49 +1904,49 @@
         <v>8</v>
       </c>
       <c r="C17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
         <v>0.78940923431393573</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H17">
         <v>8</v>
       </c>
       <c r="I17">
-        <f>IF(H17=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J17">
-        <f>(1+$I$4)^(-H17*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.6816533451881337</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1363.3066903762674</v>
       </c>
       <c r="O17">
         <v>8</v>
       </c>
       <c r="P17">
-        <f>O17/4</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q17">
-        <f>IF(P17&lt;=$R$3,$R$4,IF(P17&lt;=$S$3,$S$4,IF(P17&lt;=$T$3,$T$4,IF(P17&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="R17">
-        <f>(1+$P$4)^(-P17)</f>
+        <f t="shared" si="4"/>
         <v>0.96116878123798544</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>961.1687812379854</v>
       </c>
     </row>
@@ -1955,49 +1955,49 @@
         <v>9</v>
       </c>
       <c r="C18">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
         <v>0.76641673234362695</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7664.1673234362697</v>
       </c>
       <c r="H18">
         <v>9</v>
       </c>
       <c r="I18">
-        <f>IF(H18=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J18">
-        <f>(1+$I$4)^(-H18*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.6497690433797948</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1299.5380867595895</v>
       </c>
       <c r="O18">
         <v>9</v>
       </c>
       <c r="P18">
-        <f>O18/4</f>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="Q18">
-        <f>IF(P18&lt;=$R$3,$R$4,IF(P18&lt;=$S$3,$S$4,IF(P18&lt;=$T$3,$T$4,IF(P18&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="R18">
-        <f>(1+$P$4)^(-P18)</f>
+        <f t="shared" si="4"/>
         <v>0.95642212368304824</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1434.6331855245724</v>
       </c>
     </row>
@@ -2006,34 +2006,34 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <f>IF(H19=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="J19">
-        <f>(1+$I$4)^(-H19*$I$6)</f>
+        <f t="shared" si="2"/>
         <v>0.61937612822565724</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7432.5135387078872</v>
       </c>
       <c r="O19">
         <v>10</v>
       </c>
       <c r="P19">
-        <f>O19/4</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="Q19">
-        <f>IF(P19&lt;=$R$3,$R$4,IF(P19&lt;=$S$3,$S$4,IF(P19&lt;=$T$3,$T$4,IF(P19&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="R19">
-        <f>(1+$P$4)^(-P19)</f>
+        <f t="shared" si="4"/>
         <v>0.95169890712867578</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1427.5483606930136</v>
       </c>
     </row>
@@ -2042,19 +2042,19 @@
         <v>11</v>
       </c>
       <c r="P20">
-        <f>O20/4</f>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
       <c r="Q20">
-        <f>IF(P20&lt;=$R$3,$R$4,IF(P20&lt;=$S$3,$S$4,IF(P20&lt;=$T$3,$T$4,IF(P20&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="R20">
-        <f>(1+$P$4)^(-P20)</f>
+        <f t="shared" si="4"/>
         <v>0.94699901581330304</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1420.4985237199546</v>
       </c>
     </row>
@@ -2063,19 +2063,19 @@
         <v>12</v>
       </c>
       <c r="P21">
-        <f>O21/4</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q21">
-        <f>IF(P21&lt;=$R$3,$R$4,IF(P21&lt;=$S$3,$S$4,IF(P21&lt;=$T$3,$T$4,IF(P21&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="R21">
-        <f>(1+$P$4)^(-P21)</f>
+        <f t="shared" si="4"/>
         <v>0.94232233454704462</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1413.483501820567</v>
       </c>
     </row>
@@ -2084,19 +2084,19 @@
         <v>13</v>
       </c>
       <c r="P22">
-        <f>O22/4</f>
+        <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
       <c r="Q22">
-        <f>IF(P22&lt;=$R$3,$R$4,IF(P22&lt;=$S$3,$S$4,IF(P22&lt;=$T$3,$T$4,IF(P22&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="R22">
-        <f>(1+$P$4)^(-P22)</f>
+        <f t="shared" si="4"/>
         <v>0.93766874870887074</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1875.3374974177414</v>
       </c>
     </row>
@@ -2105,19 +2105,19 @@
         <v>14</v>
       </c>
       <c r="P23">
-        <f>O23/4</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="Q23">
-        <f>IF(P23&lt;=$R$3,$R$4,IF(P23&lt;=$S$3,$S$4,IF(P23&lt;=$T$3,$T$4,IF(P23&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="R23">
-        <f>(1+$P$4)^(-P23)</f>
+        <f t="shared" si="4"/>
         <v>0.93303814424379983</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1866.0762884875996</v>
       </c>
     </row>
@@ -2126,19 +2126,19 @@
         <v>15</v>
       </c>
       <c r="P24">
-        <f>O24/4</f>
+        <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
       <c r="Q24">
-        <f>IF(P24&lt;=$R$3,$R$4,IF(P24&lt;=$S$3,$S$4,IF(P24&lt;=$T$3,$T$4,IF(P24&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="R24">
-        <f>(1+$P$4)^(-P24)</f>
+        <f t="shared" si="4"/>
         <v>0.9284304076601011</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1856.8608153202022</v>
       </c>
     </row>
@@ -2147,19 +2147,19 @@
         <v>16</v>
       </c>
       <c r="P25">
-        <f>O25/4</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q25">
-        <f>IF(P25&lt;=$R$3,$R$4,IF(P25&lt;=$S$3,$S$4,IF(P25&lt;=$T$3,$T$4,IF(P25&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2000</v>
       </c>
       <c r="R25">
-        <f>(1+$P$4)^(-P25)</f>
+        <f t="shared" si="4"/>
         <v>0.9238454260265142</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1847.6908520530285</v>
       </c>
     </row>
@@ -2168,19 +2168,19 @@
         <v>17</v>
       </c>
       <c r="P26">
-        <f>O26/4</f>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="Q26">
-        <f>IF(P26&lt;=$R$3,$R$4,IF(P26&lt;=$S$3,$S$4,IF(P26&lt;=$T$3,$T$4,IF(P26&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="R26">
-        <f>(1+$P$4)^(-P26)</f>
+        <f t="shared" si="4"/>
         <v>0.91928308696948113</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2298.2077174237029</v>
       </c>
     </row>
@@ -2189,19 +2189,19 @@
         <v>18</v>
       </c>
       <c r="P27">
-        <f>O27/4</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="Q27">
-        <f>IF(P27&lt;=$R$3,$R$4,IF(P27&lt;=$S$3,$S$4,IF(P27&lt;=$T$3,$T$4,IF(P27&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="R27">
-        <f>(1+$P$4)^(-P27)</f>
+        <f t="shared" si="4"/>
         <v>0.91474327867039196</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2286.8581966759798</v>
       </c>
     </row>
@@ -2210,19 +2210,19 @@
         <v>19</v>
       </c>
       <c r="P28">
-        <f>O28/4</f>
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
       <c r="Q28">
-        <f>IF(P28&lt;=$R$3,$R$4,IF(P28&lt;=$S$3,$S$4,IF(P28&lt;=$T$3,$T$4,IF(P28&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="R28">
-        <f>(1+$P$4)^(-P28)</f>
+        <f t="shared" si="4"/>
         <v>0.91022588986284403</v>
       </c>
       <c r="S28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2275.5647246571102</v>
       </c>
     </row>
@@ -2231,19 +2231,19 @@
         <v>20</v>
       </c>
       <c r="P29">
-        <f>O29/4</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q29">
-        <f>IF(P29&lt;=$R$3,$R$4,IF(P29&lt;=$S$3,$S$4,IF(P29&lt;=$T$3,$T$4,IF(P29&lt;=$U$3,$U$4,$V$4))))</f>
+        <f t="shared" si="8"/>
         <v>2500</v>
       </c>
       <c r="R29">
-        <f>(1+$P$4)^(-P29)</f>
+        <f t="shared" si="4"/>
         <v>0.90573080982991594</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2264.3270245747899</v>
       </c>
     </row>

--- a/sem1/tut1/weeklyexcel1 sol.xlsx
+++ b/sem1/tut1/weeklyexcel1 sol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwetsi_m/Documents/LaTexNotes/BUS2016H/excel docs/excel question bank/suggested solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C57FE48-F3B3-5046-9B56-F67B29D48420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464793D-254E-2B42-AD4D-7466C91542FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5C63806A-7752-3D45-A91B-31F962C18D2D}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5C63806A-7752-3D45-A91B-31F962C18D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E18D5A-8B6A-7446-8B14-3D80D3D3D733}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27A29FC-3E3B-094C-8AC0-F177A2D054AB}">
   <dimension ref="B3:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="I4">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -1504,33 +1504,32 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I19" si="1">IF(H9=10,$K$4+$K$5,$K$4)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J19" si="2">(1+$I$4)^(-H9*$I$6)</f>
+        <f t="shared" ref="J9:J19" si="1">(1+$I$4)^(-H9*$I$6)</f>
         <v>1</v>
       </c>
       <c r="K9">
         <f>I9*J9</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
         <f>SUM(K9:K19)</f>
-        <v>23707.201754435653</v>
+        <v>15019.515605936231</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P29" si="3">O9/4</f>
+        <f t="shared" ref="P9:P29" si="2">O9/4</f>
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:R29" si="4">(1+$P$4)^(-P9)</f>
+        <f t="shared" ref="R9:R29" si="3">(1+$P$4)^(-P9)</f>
         <v>1</v>
       </c>
       <c r="S9">
@@ -1551,33 +1550,33 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D18" si="5">(1+$C$4)^(-B10)</f>
+        <f t="shared" ref="D10:D18" si="4">(1+$C$4)^(-B10)</f>
         <v>0.970873786407767</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E18" si="6">C10*D10</f>
+        <f t="shared" ref="E10:E18" si="5">C10*D10</f>
         <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I9:I19" si="6">IF(H10=10,$K$4+$K$5,$K$4)</f>
         <v>2000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0.9532250490173434</v>
+        <f t="shared" si="1"/>
+        <v>0.89806134826705908</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10:K19" si="7">I10*J10</f>
-        <v>1906.4500980346868</v>
+        <v>1796.1226965341182</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="Q10">
@@ -1585,7 +1584,7 @@
         <v>500</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99506157747984325</v>
       </c>
       <c r="S10">
@@ -1602,33 +1601,33 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0.94259590913375435</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="5"/>
-        <v>0.94259590913375435</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0.90863799407411672</v>
+        <f t="shared" si="1"/>
+        <v>0.80651418525124818</v>
       </c>
       <c r="K11">
         <f t="shared" si="7"/>
-        <v>1817.2759881482334</v>
+        <v>1613.0283705024963</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="Q11">
@@ -1636,7 +1635,7 @@
         <v>500</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99014754297667429</v>
       </c>
       <c r="S11">
@@ -1653,33 +1652,33 @@
         <v>10000</v>
       </c>
       <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0.91514165935315961</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="5"/>
-        <v>0.91514165935315961</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
         <v>9151.4165935315959</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0.86613649644032031</v>
+        <f t="shared" si="1"/>
+        <v>0.7242992166032447</v>
       </c>
       <c r="K12">
         <f t="shared" si="7"/>
-        <v>1732.2729928806407</v>
+        <v>1448.5984332064893</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="Q12">
@@ -1687,7 +1686,7 @@
         <v>500</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98525777605216047</v>
       </c>
       <c r="S12">
@@ -1704,33 +1703,33 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0.888487047915689</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="5"/>
-        <v>0.888487047915689</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0.82562300427503443</v>
+        <f t="shared" si="1"/>
+        <v>0.65046513101148473</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>1651.2460085500688</v>
+        <v>1300.9302620229694</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q13">
@@ -1738,7 +1737,7 @@
         <v>500</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.98039215686274506</v>
       </c>
       <c r="S13">
@@ -1755,33 +1754,33 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="4"/>
+        <v>0.86260878438416411</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="5"/>
-        <v>0.86260878438416411</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0.787004528719916</v>
+        <f t="shared" si="1"/>
+        <v>0.58415759255688327</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>1574.0090574398321</v>
+        <v>1168.3151851137666</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="Q14">
@@ -1789,7 +1788,7 @@
         <v>1000</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9755505661567091</v>
       </c>
       <c r="S14">
@@ -1806,33 +1805,33 @@
         <v>10000</v>
       </c>
       <c r="D15">
+        <f t="shared" si="4"/>
+        <v>0.83748425668365445</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="5"/>
-        <v>0.83748425668365445</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="6"/>
         <v>8374.8425668365453</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0.75019243046591322</v>
+        <f t="shared" si="1"/>
+        <v>0.52460935517207408</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
-        <v>1500.3848609318263</v>
+        <v>1049.2187103441481</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="Q15">
@@ -1840,7 +1839,7 @@
         <v>1000</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.97073288527124924</v>
       </c>
       <c r="S15">
@@ -1857,33 +1856,33 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <f t="shared" si="4"/>
+        <v>0.81309151134335378</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="5"/>
-        <v>0.81309151134335378</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0.71510221630331006</v>
+        <f t="shared" si="1"/>
+        <v>0.47113138481934524</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>1430.20443260662</v>
+        <v>942.26276963869054</v>
       </c>
       <c r="O16">
         <v>7</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="Q16">
@@ -1891,7 +1890,7 @@
         <v>1000</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.96593899612956913</v>
       </c>
       <c r="S16">
@@ -1908,33 +1907,33 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <f t="shared" si="4"/>
+        <v>0.78940923431393573</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="5"/>
-        <v>0.78940923431393573</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H17">
         <v>8</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0.6816533451881337</v>
+        <f t="shared" si="1"/>
+        <v>0.42310488666178803</v>
       </c>
       <c r="K17">
         <f t="shared" si="7"/>
-        <v>1363.3066903762674</v>
+        <v>846.20977332357609</v>
       </c>
       <c r="O17">
         <v>8</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q17">
@@ -1942,7 +1941,7 @@
         <v>1000</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.96116878123798544</v>
       </c>
       <c r="S17">
@@ -1959,33 +1958,33 @@
         <v>10000</v>
       </c>
       <c r="D18">
+        <f t="shared" si="4"/>
+        <v>0.76641673234362695</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="5"/>
-        <v>0.76641673234362695</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="6"/>
         <v>7664.1673234362697</v>
       </c>
       <c r="H18">
         <v>9</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
-        <v>0.6497690433797948</v>
+        <f t="shared" si="1"/>
+        <v>0.37997414497386656</v>
       </c>
       <c r="K18">
         <f t="shared" si="7"/>
-        <v>1299.5380867595895</v>
+        <v>759.94828994773309</v>
       </c>
       <c r="O18">
         <v>9</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
       <c r="Q18">
@@ -1993,7 +1992,7 @@
         <v>1500</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.95642212368304824</v>
       </c>
       <c r="S18">
@@ -2006,22 +2005,22 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12000</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0.61937612822565724</v>
+        <f t="shared" si="1"/>
+        <v>0.34124009294185359</v>
       </c>
       <c r="K19">
         <f t="shared" si="7"/>
-        <v>7432.5135387078872</v>
+        <v>4094.881115302243</v>
       </c>
       <c r="O19">
         <v>10</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="Q19">
@@ -2029,7 +2028,7 @@
         <v>1500</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.95169890712867578</v>
       </c>
       <c r="S19">
@@ -2042,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
       <c r="Q20">
@@ -2050,7 +2049,7 @@
         <v>1500</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94699901581330304</v>
       </c>
       <c r="S20">
@@ -2063,7 +2062,7 @@
         <v>12</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q21">
@@ -2071,7 +2070,7 @@
         <v>1500</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.94232233454704462</v>
       </c>
       <c r="S21">
@@ -2084,7 +2083,7 @@
         <v>13</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
       <c r="Q22">
@@ -2092,7 +2091,7 @@
         <v>2000</v>
       </c>
       <c r="R22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.93766874870887074</v>
       </c>
       <c r="S22">
@@ -2105,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="Q23">
@@ -2113,7 +2112,7 @@
         <v>2000</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.93303814424379983</v>
       </c>
       <c r="S23">
@@ -2126,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="Q24">
@@ -2134,7 +2133,7 @@
         <v>2000</v>
       </c>
       <c r="R24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9284304076601011</v>
       </c>
       <c r="S24">
@@ -2147,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="Q25">
@@ -2155,7 +2154,7 @@
         <v>2000</v>
       </c>
       <c r="R25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9238454260265142</v>
       </c>
       <c r="S25">
@@ -2168,7 +2167,7 @@
         <v>17</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
       <c r="Q26">
@@ -2176,7 +2175,7 @@
         <v>2500</v>
       </c>
       <c r="R26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91928308696948113</v>
       </c>
       <c r="S26">
@@ -2189,7 +2188,7 @@
         <v>18</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="Q27">
@@ -2197,7 +2196,7 @@
         <v>2500</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91474327867039196</v>
       </c>
       <c r="S27">
@@ -2210,7 +2209,7 @@
         <v>19</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
       <c r="Q28">
@@ -2218,7 +2217,7 @@
         <v>2500</v>
       </c>
       <c r="R28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.91022588986284403</v>
       </c>
       <c r="S28">
@@ -2231,7 +2230,7 @@
         <v>20</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q29">
@@ -2239,7 +2238,7 @@
         <v>2500</v>
       </c>
       <c r="R29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.90573080982991594</v>
       </c>
       <c r="S29">

--- a/sem1/tut1/weeklyexcel1 sol.xlsx
+++ b/sem1/tut1/weeklyexcel1 sol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwetsi_m/Documents/LaTexNotes/BUS2016H/excel docs/excel question bank/suggested solutions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D464793D-254E-2B42-AD4D-7466C91542FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037B128-D1DD-1944-AAE3-ED1E1A0BD65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{5C63806A-7752-3D45-A91B-31F962C18D2D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>contribution</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>quarters</t>
+  </si>
+  <si>
+    <t>errors on my part</t>
+  </si>
+  <si>
+    <t>should be like this :</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -186,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -196,6 +208,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27A29FC-3E3B-094C-8AC0-F177A2D054AB}">
-  <dimension ref="B3:V29"/>
+  <dimension ref="B3:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,8 +1371,8 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="I4">
-        <v>8.9999999999999993E-3</v>
+      <c r="I4" s="1">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J4" t="s">
         <v>23</v>
@@ -1503,33 +1516,34 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I19" si="1">IF(H9=10,$K$4+$K$5,$K$4)</f>
+        <v>2000</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9:J19" si="1">(1+$I$4)^(-H9*$I$6)</f>
+        <f t="shared" ref="J9:J19" si="2">(1+$I$4)^(-H9*$I$6)</f>
         <v>1</v>
       </c>
       <c r="K9">
         <f>I9*J9</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L9" s="4">
         <f>SUM(K9:K19)</f>
-        <v>15019.515605936231</v>
+        <v>23707.201754435653</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:P29" si="2">O9/4</f>
+        <f t="shared" ref="P9:P29" si="3">O9/4</f>
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:R29" si="3">(1+$P$4)^(-P9)</f>
+        <f t="shared" ref="R9:R29" si="4">(1+$P$4)^(-P9)</f>
         <v>1</v>
       </c>
       <c r="S9">
@@ -1550,33 +1564,33 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D18" si="4">(1+$C$4)^(-B10)</f>
+        <f t="shared" ref="D10:D18" si="5">(1+$C$4)^(-B10)</f>
         <v>0.970873786407767</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E18" si="5">C10*D10</f>
+        <f t="shared" ref="E10:E18" si="6">C10*D10</f>
         <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I9:I19" si="6">IF(H10=10,$K$4+$K$5,$K$4)</f>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.89806134826705908</v>
+        <f t="shared" si="2"/>
+        <v>0.9532250490173434</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10:K19" si="7">I10*J10</f>
-        <v>1796.1226965341182</v>
+        <v>1906.4500980346868</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="Q10">
@@ -1584,7 +1598,7 @@
         <v>500</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99506157747984325</v>
       </c>
       <c r="S10">
@@ -1601,33 +1615,33 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94259590913375435</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0.80651418525124818</v>
+        <f t="shared" si="2"/>
+        <v>0.90863799407411672</v>
       </c>
       <c r="K11">
         <f t="shared" si="7"/>
-        <v>1613.0283705024963</v>
+        <v>1817.2759881482334</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="Q11">
@@ -1635,7 +1649,7 @@
         <v>500</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99014754297667429</v>
       </c>
       <c r="S11">
@@ -1652,33 +1666,33 @@
         <v>10000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91514165935315961</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9151.4165935315959</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0.7242992166032447</v>
+        <f t="shared" si="2"/>
+        <v>0.86613649644032031</v>
       </c>
       <c r="K12">
         <f t="shared" si="7"/>
-        <v>1448.5984332064893</v>
+        <v>1732.2729928806407</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="Q12">
@@ -1686,7 +1700,7 @@
         <v>500</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98525777605216047</v>
       </c>
       <c r="S12">
@@ -1703,33 +1717,33 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.888487047915689</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0.65046513101148473</v>
+        <f t="shared" si="2"/>
+        <v>0.82562300427503443</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>1300.9302620229694</v>
+        <v>1651.2460085500688</v>
       </c>
       <c r="O13">
         <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q13">
@@ -1737,7 +1751,7 @@
         <v>500</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98039215686274506</v>
       </c>
       <c r="S13">
@@ -1754,33 +1768,33 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86260878438416411</v>
       </c>
       <c r="E14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0.58415759255688327</v>
+        <f t="shared" si="2"/>
+        <v>0.787004528719916</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>1168.3151851137666</v>
+        <v>1574.0090574398321</v>
       </c>
       <c r="O14">
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="Q14">
@@ -1788,7 +1802,7 @@
         <v>1000</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9755505661567091</v>
       </c>
       <c r="S14">
@@ -1805,33 +1819,33 @@
         <v>10000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83748425668365445</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8374.8425668365453</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0.52460935517207408</v>
+        <f t="shared" si="2"/>
+        <v>0.75019243046591322</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
-        <v>1049.2187103441481</v>
+        <v>1500.3848609318263</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="Q15">
@@ -1839,7 +1853,7 @@
         <v>1000</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97073288527124924</v>
       </c>
       <c r="S15">
@@ -1856,33 +1870,33 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81309151134335378</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H16">
         <v>7</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0.47113138481934524</v>
+        <f t="shared" si="2"/>
+        <v>0.71510221630331006</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>942.26276963869054</v>
+        <v>1430.20443260662</v>
       </c>
       <c r="O16">
         <v>7</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
       <c r="Q16">
@@ -1890,7 +1904,7 @@
         <v>1000</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96593899612956913</v>
       </c>
       <c r="S16">
@@ -1907,33 +1921,33 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78940923431393573</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H17">
         <v>8</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0.42310488666178803</v>
+        <f t="shared" si="2"/>
+        <v>0.6816533451881337</v>
       </c>
       <c r="K17">
         <f t="shared" si="7"/>
-        <v>846.20977332357609</v>
+        <v>1363.3066903762674</v>
       </c>
       <c r="O17">
         <v>8</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q17">
@@ -1941,7 +1955,7 @@
         <v>1000</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96116878123798544</v>
       </c>
       <c r="S17">
@@ -1958,33 +1972,33 @@
         <v>10000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76641673234362695</v>
       </c>
       <c r="E18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7664.1673234362697</v>
       </c>
       <c r="H18">
         <v>9</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0.37997414497386656</v>
+        <f t="shared" si="2"/>
+        <v>0.6497690433797948</v>
       </c>
       <c r="K18">
         <f t="shared" si="7"/>
-        <v>759.94828994773309</v>
+        <v>1299.5380867595895</v>
       </c>
       <c r="O18">
         <v>9</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="Q18">
@@ -1992,7 +2006,7 @@
         <v>1500</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95642212368304824</v>
       </c>
       <c r="S18">
@@ -2005,22 +2019,22 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>0.34124009294185359</v>
+        <f t="shared" si="2"/>
+        <v>0.61937612822565724</v>
       </c>
       <c r="K19">
         <f t="shared" si="7"/>
-        <v>4094.881115302243</v>
+        <v>7432.5135387078872</v>
       </c>
       <c r="O19">
         <v>10</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="Q19">
@@ -2028,7 +2042,7 @@
         <v>1500</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95169890712867578</v>
       </c>
       <c r="S19">
@@ -2041,7 +2055,7 @@
         <v>11</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
       <c r="Q20">
@@ -2049,7 +2063,7 @@
         <v>1500</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94699901581330304</v>
       </c>
       <c r="S20">
@@ -2062,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q21">
@@ -2070,7 +2084,7 @@
         <v>1500</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94232233454704462</v>
       </c>
       <c r="S21">
@@ -2079,11 +2093,15 @@
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1"/>
       <c r="O22">
         <v>13</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
       <c r="Q22">
@@ -2091,7 +2109,7 @@
         <v>2000</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93766874870887074</v>
       </c>
       <c r="S22">
@@ -2104,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="Q23">
@@ -2112,7 +2130,7 @@
         <v>2000</v>
       </c>
       <c r="R23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93303814424379983</v>
       </c>
       <c r="S23">
@@ -2121,11 +2139,15 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="5"/>
       <c r="O24">
         <v>15</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
       <c r="Q24">
@@ -2133,7 +2155,7 @@
         <v>2000</v>
       </c>
       <c r="R24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9284304076601011</v>
       </c>
       <c r="S24">
@@ -2146,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q25">
@@ -2154,7 +2176,7 @@
         <v>2000</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9238454260265142</v>
       </c>
       <c r="S25">
@@ -2163,11 +2185,23 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I26" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26">
+        <v>2000</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
       <c r="O26">
         <v>17</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="Q26">
@@ -2175,7 +2209,7 @@
         <v>2500</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91928308696948113</v>
       </c>
       <c r="S26">
@@ -2184,11 +2218,20 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>10000</v>
+      </c>
+      <c r="L27" t="s">
+        <v>30</v>
+      </c>
       <c r="O27">
         <v>18</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="Q27">
@@ -2196,7 +2239,7 @@
         <v>2500</v>
       </c>
       <c r="R27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91474327867039196</v>
       </c>
       <c r="S27">
@@ -2205,11 +2248,14 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>12</v>
+      </c>
       <c r="O28">
         <v>19</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.75</v>
       </c>
       <c r="Q28">
@@ -2217,7 +2263,7 @@
         <v>2500</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91022588986284403</v>
       </c>
       <c r="S28">
@@ -2230,7 +2276,7 @@
         <v>20</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q29">
@@ -2238,12 +2284,219 @@
         <v>2500</v>
       </c>
       <c r="R29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90573080982991594</v>
       </c>
       <c r="S29">
         <f t="shared" si="9"/>
         <v>2264.3270245747899</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>(1+$I$26)^(-H31*$I$6)</f>
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <f>I31*J31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <f>SUM(K31:K41)</f>
+        <v>15019.515605936231</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I31:I41" si="11">IF(H32=10,$K$4+$K$5,$K$4)</f>
+        <v>2000</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J41" si="12">(1+$I$26)^(-H32*$I$6)</f>
+        <v>0.89806134826705908</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:K41" si="13">I32*J32</f>
+        <v>1796.1226965341182</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="12"/>
+        <v>0.80651418525124818</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="13"/>
+        <v>1613.0283705024963</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="12"/>
+        <v>0.7242992166032447</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="13"/>
+        <v>1448.5984332064893</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>0.65046513101148473</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="13"/>
+        <v>1300.9302620229694</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="12"/>
+        <v>0.58415759255688327</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
+        <v>1168.3151851137666</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="12"/>
+        <v>0.52460935517207408</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>1049.2187103441481</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="12"/>
+        <v>0.47113138481934524</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="13"/>
+        <v>942.26276963869054</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="12"/>
+        <v>0.42310488666178803</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="13"/>
+        <v>846.20977332357609</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="12"/>
+        <v>0.37997414497386656</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="13"/>
+        <v>759.94828994773309</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>12000</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="12"/>
+        <v>0.34124009294185359</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="13"/>
+        <v>4094.881115302243</v>
       </c>
     </row>
   </sheetData>
